--- a/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,481 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>870</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>960</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>900</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1410</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>960</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45411</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>480</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45530</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>640</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>420</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45628</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45635</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B61" t="n">
         <v>80</v>
       </c>
     </row>
@@ -693,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,55 +963,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2790</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3960</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1510</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1420</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2980</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>720</v>
@@ -771,25 +1019,113 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>940</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>960</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,79 +564,79 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>260</v>
@@ -644,289 +644,281 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>260</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>340</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>840</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>870</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>900</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>420</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>960</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>1200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>580</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>640</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B61" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1006,7 +998,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">

--- a/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -949,7 +950,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1119,6 +1120,985 @@
       </c>
       <c r="B22" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-307.6317786613376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>614.6208507179261</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>159</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-324.8199284071607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>616.3245792212094</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>168</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-285.7711598263808</v>
+      </c>
+      <c r="D4" t="n">
+        <v>657.0541769353091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-281.5991480315519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>662.7780936634776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-291.1984012092562</v>
+      </c>
+      <c r="D6" t="n">
+        <v>656.0640520271767</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>192</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-280.0065531933876</v>
+      </c>
+      <c r="D7" t="n">
+        <v>688.3929106599411</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>207</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-280.8912635298352</v>
+      </c>
+      <c r="D8" t="n">
+        <v>687.5326018692929</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>212</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-256.0140698252814</v>
+      </c>
+      <c r="D9" t="n">
+        <v>699.388914229932</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>231</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-202.7507455468546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>745.3018925373937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-249.6510573332441</v>
+      </c>
+      <c r="D11" t="n">
+        <v>735.1291871007775</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>240</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-224.7949400050063</v>
+      </c>
+      <c r="D12" t="n">
+        <v>714.636482657309</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-244.6957528136908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>747.0636752952387</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-205.9105929661849</v>
+      </c>
+      <c r="D14" t="n">
+        <v>745.148101944216</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>260</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-184.1269909383631</v>
+      </c>
+      <c r="D15" t="n">
+        <v>750.0166850473173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>269</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-188.4939549822456</v>
+      </c>
+      <c r="D16" t="n">
+        <v>736.129479197756</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>274</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-220.2297587215434</v>
+      </c>
+      <c r="D17" t="n">
+        <v>728.2063969976897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>279</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-181.5582614264422</v>
+      </c>
+      <c r="D18" t="n">
+        <v>759.463179729455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>284</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-217.8398803181302</v>
+      </c>
+      <c r="D19" t="n">
+        <v>729.7164886794399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>288</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-155.241017450374</v>
+      </c>
+      <c r="D20" t="n">
+        <v>759.4384897379807</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>293</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-175.4786959651189</v>
+      </c>
+      <c r="D21" t="n">
+        <v>797.7728462501691</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>298</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-175.0233672855549</v>
+      </c>
+      <c r="D22" t="n">
+        <v>798.7130400615674</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>303</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-189.9070278182543</v>
+      </c>
+      <c r="D23" t="n">
+        <v>756.6479534267662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>308</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-156.9094065800032</v>
+      </c>
+      <c r="D24" t="n">
+        <v>809.0170793125026</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>322</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-146.0777521114738</v>
+      </c>
+      <c r="D25" t="n">
+        <v>823.27148365523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>327</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-143.7344523778972</v>
+      </c>
+      <c r="D26" t="n">
+        <v>778.5323540471561</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>332</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-159.4998142784946</v>
+      </c>
+      <c r="D27" t="n">
+        <v>785.5168317531893</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>341</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-107.0807128157744</v>
+      </c>
+      <c r="D28" t="n">
+        <v>848.0405779237146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>346</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-132.5888038907824</v>
+      </c>
+      <c r="D29" t="n">
+        <v>811.2461382818977</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>351</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-145.3131733971231</v>
+      </c>
+      <c r="D30" t="n">
+        <v>863.8861507066955</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>361</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-131.888055328095</v>
+      </c>
+      <c r="D31" t="n">
+        <v>831.4800921571848</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>375</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-105.8105343273937</v>
+      </c>
+      <c r="D32" t="n">
+        <v>838.4770521231502</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>380</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-94.71577569961227</v>
+      </c>
+      <c r="D33" t="n">
+        <v>866.2982040470112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>385</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-113.3813332021801</v>
+      </c>
+      <c r="D34" t="n">
+        <v>839.7299746699076</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>394</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-161.4692444042526</v>
+      </c>
+      <c r="D35" t="n">
+        <v>842.6690682895467</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>399</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-73.22635859821651</v>
+      </c>
+      <c r="D36" t="n">
+        <v>904.5185966125491</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>404</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-33.61265107788842</v>
+      </c>
+      <c r="D37" t="n">
+        <v>895.6132436601106</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>409</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-48.74842134315615</v>
+      </c>
+      <c r="D38" t="n">
+        <v>890.9841990102509</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>413</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-58.84231293439289</v>
+      </c>
+      <c r="D39" t="n">
+        <v>927.1807658177692</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>418</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-56.41827941456726</v>
+      </c>
+      <c r="D40" t="n">
+        <v>888.7652519153576</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>428</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-48.71167876665694</v>
+      </c>
+      <c r="D41" t="n">
+        <v>872.6181559095315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>433</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-32.85853297964135</v>
+      </c>
+      <c r="D42" t="n">
+        <v>886.3636629289316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>437</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-59.16707477202213</v>
+      </c>
+      <c r="D43" t="n">
+        <v>896.0348118708165</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>442</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-31.90336266348543</v>
+      </c>
+      <c r="D44" t="n">
+        <v>933.7480131131069</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>447</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-10.11329794308918</v>
+      </c>
+      <c r="D45" t="n">
+        <v>916.6430421432136</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>457</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3400371109351905</v>
+      </c>
+      <c r="D46" t="n">
+        <v>962.7504065253196</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>462</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-33.17573455067121</v>
+      </c>
+      <c r="D47" t="n">
+        <v>948.1470489573103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>481</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-6.94396505153827</v>
+      </c>
+      <c r="D48" t="n">
+        <v>974.3712800913622</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>486</v>
+      </c>
+      <c r="C49" t="n">
+        <v>48.0224806764952</v>
+      </c>
+      <c r="D49" t="n">
+        <v>916.5875637312597</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>490</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-12.30069027153389</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1029.587207045252</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>524</v>
+      </c>
+      <c r="C51" t="n">
+        <v>48.35625987863333</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1012.424653703171</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>529</v>
+      </c>
+      <c r="C52" t="n">
+        <v>70.03219134495856</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1023.849498045738</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>534</v>
+      </c>
+      <c r="C53" t="n">
+        <v>35.3820554003057</v>
+      </c>
+      <c r="D53" t="n">
+        <v>994.7155704980845</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>538</v>
+      </c>
+      <c r="C54" t="n">
+        <v>74.112820629418</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1025.807853044468</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>553</v>
+      </c>
+      <c r="C55" t="n">
+        <v>67.71155044416538</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1006.381008845506</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>558</v>
+      </c>
+      <c r="C56" t="n">
+        <v>79.50579720820311</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1060.415855795049</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>577</v>
+      </c>
+      <c r="C57" t="n">
+        <v>82.5560999044541</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1068.333742726902</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>582</v>
+      </c>
+      <c r="C58" t="n">
+        <v>117.4345859825931</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1082.295814596984</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>606</v>
+      </c>
+      <c r="C59" t="n">
+        <v>125.7206145063596</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1066.159986715952</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>611</v>
+      </c>
+      <c r="C60" t="n">
+        <v>141.9730907755709</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1098.524899007873</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>615</v>
+      </c>
+      <c r="C61" t="n">
+        <v>161.870358678308</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1104.568172498122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>620</v>
+      </c>
+      <c r="C62" t="n">
+        <v>120.6005581545765</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1095.099528858809</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>132.4060711036983</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1082.844002994072</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>630</v>
+      </c>
+      <c r="C64" t="n">
+        <v>122.1811282964439</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1137.882087152921</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>635</v>
+      </c>
+      <c r="C65" t="n">
+        <v>147.2141101886543</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1079.559038431925</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>639</v>
+      </c>
+      <c r="C66" t="n">
+        <v>144.1705640783291</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1104.901353118275</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>644</v>
+      </c>
+      <c r="C67" t="n">
+        <v>180.2800366100052</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1121.51467586858</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>649</v>
+      </c>
+      <c r="C68" t="n">
+        <v>159.9501711770882</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1086.354280733103</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
@@ -1133,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,16 +1152,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1170,12 +1160,6 @@
       <c r="B2" t="n">
         <v>154</v>
       </c>
-      <c r="C2" t="n">
-        <v>-307.6317786613376</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614.6208507179261</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1184,12 +1168,6 @@
       <c r="B3" t="n">
         <v>159</v>
       </c>
-      <c r="C3" t="n">
-        <v>-324.8199284071607</v>
-      </c>
-      <c r="D3" t="n">
-        <v>616.3245792212094</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1198,12 +1176,6 @@
       <c r="B4" t="n">
         <v>168</v>
       </c>
-      <c r="C4" t="n">
-        <v>-285.7711598263808</v>
-      </c>
-      <c r="D4" t="n">
-        <v>657.0541769353091</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1212,12 +1184,6 @@
       <c r="B5" t="n">
         <v>178</v>
       </c>
-      <c r="C5" t="n">
-        <v>-281.5991480315519</v>
-      </c>
-      <c r="D5" t="n">
-        <v>662.7780936634776</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1226,12 +1192,6 @@
       <c r="B6" t="n">
         <v>188</v>
       </c>
-      <c r="C6" t="n">
-        <v>-291.1984012092562</v>
-      </c>
-      <c r="D6" t="n">
-        <v>656.0640520271767</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1240,12 +1200,6 @@
       <c r="B7" t="n">
         <v>192</v>
       </c>
-      <c r="C7" t="n">
-        <v>-280.0065531933876</v>
-      </c>
-      <c r="D7" t="n">
-        <v>688.3929106599411</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1254,12 +1208,6 @@
       <c r="B8" t="n">
         <v>207</v>
       </c>
-      <c r="C8" t="n">
-        <v>-280.8912635298352</v>
-      </c>
-      <c r="D8" t="n">
-        <v>687.5326018692929</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1268,12 +1216,6 @@
       <c r="B9" t="n">
         <v>212</v>
       </c>
-      <c r="C9" t="n">
-        <v>-256.0140698252814</v>
-      </c>
-      <c r="D9" t="n">
-        <v>699.388914229932</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1282,12 +1224,6 @@
       <c r="B10" t="n">
         <v>231</v>
       </c>
-      <c r="C10" t="n">
-        <v>-202.7507455468546</v>
-      </c>
-      <c r="D10" t="n">
-        <v>745.3018925373937</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1296,12 +1232,6 @@
       <c r="B11" t="n">
         <v>236</v>
       </c>
-      <c r="C11" t="n">
-        <v>-249.6510573332441</v>
-      </c>
-      <c r="D11" t="n">
-        <v>735.1291871007775</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1310,12 +1240,6 @@
       <c r="B12" t="n">
         <v>240</v>
       </c>
-      <c r="C12" t="n">
-        <v>-224.7949400050063</v>
-      </c>
-      <c r="D12" t="n">
-        <v>714.636482657309</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1324,12 +1248,6 @@
       <c r="B13" t="n">
         <v>250</v>
       </c>
-      <c r="C13" t="n">
-        <v>-244.6957528136908</v>
-      </c>
-      <c r="D13" t="n">
-        <v>747.0636752952387</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1338,12 +1256,6 @@
       <c r="B14" t="n">
         <v>255</v>
       </c>
-      <c r="C14" t="n">
-        <v>-205.9105929661849</v>
-      </c>
-      <c r="D14" t="n">
-        <v>745.148101944216</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1352,12 +1264,6 @@
       <c r="B15" t="n">
         <v>260</v>
       </c>
-      <c r="C15" t="n">
-        <v>-184.1269909383631</v>
-      </c>
-      <c r="D15" t="n">
-        <v>750.0166850473173</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1366,12 +1272,6 @@
       <c r="B16" t="n">
         <v>269</v>
       </c>
-      <c r="C16" t="n">
-        <v>-188.4939549822456</v>
-      </c>
-      <c r="D16" t="n">
-        <v>736.129479197756</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1380,12 +1280,6 @@
       <c r="B17" t="n">
         <v>274</v>
       </c>
-      <c r="C17" t="n">
-        <v>-220.2297587215434</v>
-      </c>
-      <c r="D17" t="n">
-        <v>728.2063969976897</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1394,12 +1288,6 @@
       <c r="B18" t="n">
         <v>279</v>
       </c>
-      <c r="C18" t="n">
-        <v>-181.5582614264422</v>
-      </c>
-      <c r="D18" t="n">
-        <v>759.463179729455</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1408,12 +1296,6 @@
       <c r="B19" t="n">
         <v>284</v>
       </c>
-      <c r="C19" t="n">
-        <v>-217.8398803181302</v>
-      </c>
-      <c r="D19" t="n">
-        <v>729.7164886794399</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1422,12 +1304,6 @@
       <c r="B20" t="n">
         <v>288</v>
       </c>
-      <c r="C20" t="n">
-        <v>-155.241017450374</v>
-      </c>
-      <c r="D20" t="n">
-        <v>759.4384897379807</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1436,12 +1312,6 @@
       <c r="B21" t="n">
         <v>293</v>
       </c>
-      <c r="C21" t="n">
-        <v>-175.4786959651189</v>
-      </c>
-      <c r="D21" t="n">
-        <v>797.7728462501691</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1450,12 +1320,6 @@
       <c r="B22" t="n">
         <v>298</v>
       </c>
-      <c r="C22" t="n">
-        <v>-175.0233672855549</v>
-      </c>
-      <c r="D22" t="n">
-        <v>798.7130400615674</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1464,12 +1328,6 @@
       <c r="B23" t="n">
         <v>303</v>
       </c>
-      <c r="C23" t="n">
-        <v>-189.9070278182543</v>
-      </c>
-      <c r="D23" t="n">
-        <v>756.6479534267662</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1478,12 +1336,6 @@
       <c r="B24" t="n">
         <v>308</v>
       </c>
-      <c r="C24" t="n">
-        <v>-156.9094065800032</v>
-      </c>
-      <c r="D24" t="n">
-        <v>809.0170793125026</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1492,12 +1344,6 @@
       <c r="B25" t="n">
         <v>322</v>
       </c>
-      <c r="C25" t="n">
-        <v>-146.0777521114738</v>
-      </c>
-      <c r="D25" t="n">
-        <v>823.27148365523</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1506,12 +1352,6 @@
       <c r="B26" t="n">
         <v>327</v>
       </c>
-      <c r="C26" t="n">
-        <v>-143.7344523778972</v>
-      </c>
-      <c r="D26" t="n">
-        <v>778.5323540471561</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1520,12 +1360,6 @@
       <c r="B27" t="n">
         <v>332</v>
       </c>
-      <c r="C27" t="n">
-        <v>-159.4998142784946</v>
-      </c>
-      <c r="D27" t="n">
-        <v>785.5168317531893</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1534,12 +1368,6 @@
       <c r="B28" t="n">
         <v>341</v>
       </c>
-      <c r="C28" t="n">
-        <v>-107.0807128157744</v>
-      </c>
-      <c r="D28" t="n">
-        <v>848.0405779237146</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1548,12 +1376,6 @@
       <c r="B29" t="n">
         <v>346</v>
       </c>
-      <c r="C29" t="n">
-        <v>-132.5888038907824</v>
-      </c>
-      <c r="D29" t="n">
-        <v>811.2461382818977</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1562,12 +1384,6 @@
       <c r="B30" t="n">
         <v>351</v>
       </c>
-      <c r="C30" t="n">
-        <v>-145.3131733971231</v>
-      </c>
-      <c r="D30" t="n">
-        <v>863.8861507066955</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1576,12 +1392,6 @@
       <c r="B31" t="n">
         <v>361</v>
       </c>
-      <c r="C31" t="n">
-        <v>-131.888055328095</v>
-      </c>
-      <c r="D31" t="n">
-        <v>831.4800921571848</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1590,12 +1400,6 @@
       <c r="B32" t="n">
         <v>375</v>
       </c>
-      <c r="C32" t="n">
-        <v>-105.8105343273937</v>
-      </c>
-      <c r="D32" t="n">
-        <v>838.4770521231502</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1604,12 +1408,6 @@
       <c r="B33" t="n">
         <v>380</v>
       </c>
-      <c r="C33" t="n">
-        <v>-94.71577569961227</v>
-      </c>
-      <c r="D33" t="n">
-        <v>866.2982040470112</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1618,12 +1416,6 @@
       <c r="B34" t="n">
         <v>385</v>
       </c>
-      <c r="C34" t="n">
-        <v>-113.3813332021801</v>
-      </c>
-      <c r="D34" t="n">
-        <v>839.7299746699076</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1632,12 +1424,6 @@
       <c r="B35" t="n">
         <v>394</v>
       </c>
-      <c r="C35" t="n">
-        <v>-161.4692444042526</v>
-      </c>
-      <c r="D35" t="n">
-        <v>842.6690682895467</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1646,12 +1432,6 @@
       <c r="B36" t="n">
         <v>399</v>
       </c>
-      <c r="C36" t="n">
-        <v>-73.22635859821651</v>
-      </c>
-      <c r="D36" t="n">
-        <v>904.5185966125491</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1660,12 +1440,6 @@
       <c r="B37" t="n">
         <v>404</v>
       </c>
-      <c r="C37" t="n">
-        <v>-33.61265107788842</v>
-      </c>
-      <c r="D37" t="n">
-        <v>895.6132436601106</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1674,12 +1448,6 @@
       <c r="B38" t="n">
         <v>409</v>
       </c>
-      <c r="C38" t="n">
-        <v>-48.74842134315615</v>
-      </c>
-      <c r="D38" t="n">
-        <v>890.9841990102509</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1688,12 +1456,6 @@
       <c r="B39" t="n">
         <v>413</v>
       </c>
-      <c r="C39" t="n">
-        <v>-58.84231293439289</v>
-      </c>
-      <c r="D39" t="n">
-        <v>927.1807658177692</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1702,12 +1464,6 @@
       <c r="B40" t="n">
         <v>418</v>
       </c>
-      <c r="C40" t="n">
-        <v>-56.41827941456726</v>
-      </c>
-      <c r="D40" t="n">
-        <v>888.7652519153576</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1716,12 +1472,6 @@
       <c r="B41" t="n">
         <v>428</v>
       </c>
-      <c r="C41" t="n">
-        <v>-48.71167876665694</v>
-      </c>
-      <c r="D41" t="n">
-        <v>872.6181559095315</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1730,12 +1480,6 @@
       <c r="B42" t="n">
         <v>433</v>
       </c>
-      <c r="C42" t="n">
-        <v>-32.85853297964135</v>
-      </c>
-      <c r="D42" t="n">
-        <v>886.3636629289316</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1744,12 +1488,6 @@
       <c r="B43" t="n">
         <v>437</v>
       </c>
-      <c r="C43" t="n">
-        <v>-59.16707477202213</v>
-      </c>
-      <c r="D43" t="n">
-        <v>896.0348118708165</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1758,12 +1496,6 @@
       <c r="B44" t="n">
         <v>442</v>
       </c>
-      <c r="C44" t="n">
-        <v>-31.90336266348543</v>
-      </c>
-      <c r="D44" t="n">
-        <v>933.7480131131069</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1772,12 +1504,6 @@
       <c r="B45" t="n">
         <v>447</v>
       </c>
-      <c r="C45" t="n">
-        <v>-10.11329794308918</v>
-      </c>
-      <c r="D45" t="n">
-        <v>916.6430421432136</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1786,12 +1512,6 @@
       <c r="B46" t="n">
         <v>457</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.3400371109351905</v>
-      </c>
-      <c r="D46" t="n">
-        <v>962.7504065253196</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1800,12 +1520,6 @@
       <c r="B47" t="n">
         <v>462</v>
       </c>
-      <c r="C47" t="n">
-        <v>-33.17573455067121</v>
-      </c>
-      <c r="D47" t="n">
-        <v>948.1470489573103</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1814,12 +1528,6 @@
       <c r="B48" t="n">
         <v>481</v>
       </c>
-      <c r="C48" t="n">
-        <v>-6.94396505153827</v>
-      </c>
-      <c r="D48" t="n">
-        <v>974.3712800913622</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1828,12 +1536,6 @@
       <c r="B49" t="n">
         <v>486</v>
       </c>
-      <c r="C49" t="n">
-        <v>48.0224806764952</v>
-      </c>
-      <c r="D49" t="n">
-        <v>916.5875637312597</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1842,12 +1544,6 @@
       <c r="B50" t="n">
         <v>490</v>
       </c>
-      <c r="C50" t="n">
-        <v>-12.30069027153389</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1029.587207045252</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1856,12 +1552,6 @@
       <c r="B51" t="n">
         <v>524</v>
       </c>
-      <c r="C51" t="n">
-        <v>48.35625987863333</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1012.424653703171</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1870,12 +1560,6 @@
       <c r="B52" t="n">
         <v>529</v>
       </c>
-      <c r="C52" t="n">
-        <v>70.03219134495856</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1023.849498045738</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1884,12 +1568,6 @@
       <c r="B53" t="n">
         <v>534</v>
       </c>
-      <c r="C53" t="n">
-        <v>35.3820554003057</v>
-      </c>
-      <c r="D53" t="n">
-        <v>994.7155704980845</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1898,12 +1576,6 @@
       <c r="B54" t="n">
         <v>538</v>
       </c>
-      <c r="C54" t="n">
-        <v>74.112820629418</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1025.807853044468</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1912,12 +1584,6 @@
       <c r="B55" t="n">
         <v>553</v>
       </c>
-      <c r="C55" t="n">
-        <v>67.71155044416538</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1006.381008845506</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1926,12 +1592,6 @@
       <c r="B56" t="n">
         <v>558</v>
       </c>
-      <c r="C56" t="n">
-        <v>79.50579720820311</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1060.415855795049</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1940,12 +1600,6 @@
       <c r="B57" t="n">
         <v>577</v>
       </c>
-      <c r="C57" t="n">
-        <v>82.5560999044541</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1068.333742726902</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1954,12 +1608,6 @@
       <c r="B58" t="n">
         <v>582</v>
       </c>
-      <c r="C58" t="n">
-        <v>117.4345859825931</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1082.295814596984</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1968,12 +1616,6 @@
       <c r="B59" t="n">
         <v>606</v>
       </c>
-      <c r="C59" t="n">
-        <v>125.7206145063596</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1066.159986715952</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1982,12 +1624,6 @@
       <c r="B60" t="n">
         <v>611</v>
       </c>
-      <c r="C60" t="n">
-        <v>141.9730907755709</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1098.524899007873</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1996,12 +1632,6 @@
       <c r="B61" t="n">
         <v>615</v>
       </c>
-      <c r="C61" t="n">
-        <v>161.870358678308</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1104.568172498122</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2010,12 +1640,6 @@
       <c r="B62" t="n">
         <v>620</v>
       </c>
-      <c r="C62" t="n">
-        <v>120.6005581545765</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1095.099528858809</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2024,12 +1648,6 @@
       <c r="B63" t="n">
         <v>625</v>
       </c>
-      <c r="C63" t="n">
-        <v>132.4060711036983</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1082.844002994072</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2038,12 +1656,6 @@
       <c r="B64" t="n">
         <v>630</v>
       </c>
-      <c r="C64" t="n">
-        <v>122.1811282964439</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1137.882087152921</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2052,12 +1664,6 @@
       <c r="B65" t="n">
         <v>635</v>
       </c>
-      <c r="C65" t="n">
-        <v>147.2141101886543</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1079.559038431925</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2066,12 +1672,6 @@
       <c r="B66" t="n">
         <v>639</v>
       </c>
-      <c r="C66" t="n">
-        <v>144.1705640783291</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1104.901353118275</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2080,12 +1680,6 @@
       <c r="B67" t="n">
         <v>644</v>
       </c>
-      <c r="C67" t="n">
-        <v>180.2800366100052</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1121.51467586858</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2093,12 +1687,6 @@
       </c>
       <c r="B68" t="n">
         <v>649</v>
-      </c>
-      <c r="C68" t="n">
-        <v>159.9501711770882</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1086.354280733103</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTTZFQTP_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,6 +923,22 @@
         <v>80</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -934,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,6 +1138,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1133,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,7 +1182,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -1166,7 +1190,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -1174,7 +1198,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1206,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -1190,7 +1214,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1222,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
@@ -1206,7 +1230,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1238,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1246,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1254,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
@@ -1238,7 +1262,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
@@ -1246,7 +1270,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -1254,7 +1278,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1262,7 +1286,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
@@ -1270,7 +1294,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1302,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
@@ -1286,7 +1310,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19">
@@ -1294,7 +1318,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20">
@@ -1302,7 +1326,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21">
@@ -1310,7 +1334,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1342,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23">
@@ -1326,7 +1350,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24">
@@ -1342,7 +1366,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26">
@@ -1350,7 +1374,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27">
@@ -1358,7 +1382,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28">
@@ -1366,7 +1390,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29">
@@ -1374,7 +1398,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
@@ -1382,7 +1406,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
@@ -1390,7 +1414,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1422,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33">
@@ -1406,7 +1430,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34">
@@ -1414,7 +1438,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35">
@@ -1422,7 +1446,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1454,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
@@ -1438,7 +1462,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
@@ -1446,7 +1470,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
@@ -1454,7 +1478,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40">
@@ -1462,7 +1486,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>418</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
@@ -1470,7 +1494,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>428</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
@@ -1478,7 +1502,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43">
@@ -1486,7 +1510,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
@@ -1494,7 +1518,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>442</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45">
@@ -1502,7 +1526,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>447</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
@@ -1510,7 +1534,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>457</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47">
@@ -1518,7 +1542,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>462</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
@@ -1526,7 +1550,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>481</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
@@ -1534,7 +1558,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>486</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
@@ -1542,7 +1566,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>490</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51">
@@ -1550,7 +1574,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>524</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52">
@@ -1558,7 +1582,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>529</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
@@ -1566,7 +1590,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>534</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
@@ -1574,7 +1598,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>538</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55">
@@ -1582,7 +1606,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>553</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56">
@@ -1590,7 +1614,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>558</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
@@ -1598,7 +1622,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>577</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
@@ -1606,7 +1630,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>582</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59">
@@ -1614,7 +1638,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>606</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60">
@@ -1622,71 +1646,87 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>611</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>615</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>620</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>630</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>635</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>639</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>644</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>649</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
